--- a/master_time_sheet.xlsx
+++ b/master_time_sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/5_PythonFiles/Wind Velocities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/5_PythonFiles/ESHL_CBo_Post_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABDACC104854B11976DA5ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECAC3524-721F-4B65-B894-8DCDABF43EE6}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC104854B11976DA5ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7622BDB8-B70F-4755-AB19-00939371C129}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>experiment</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>cbo_winter</t>
+  </si>
+  <si>
+    <t>exclude</t>
+  </si>
+  <si>
+    <t>außen,3l_kü,3l_wz,4l,2l,1l,bd,bd_original</t>
+  </si>
+  <si>
+    <t>außen,3l_kü,3l_wz,4l,2l,1l</t>
+  </si>
+  <si>
+    <t>1a,1l,2l,3l,4a_testo,4l,außen</t>
+  </si>
+  <si>
+    <t>1l,1a_testo,1t,2a_testo,2l,3l,4a_testo,4l,außen</t>
+  </si>
+  <si>
+    <t>1a,1l,1l_sub,2l,3f,3l,4a,4a_sub,4a_testo,4l,5flur,5treppe,außen,tr,weather</t>
   </si>
 </sst>
 </file>
@@ -443,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,9 +472,10 @@
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +488,11 @@
       <c r="D1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -483,8 +505,11 @@
       <c r="D2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -497,8 +522,11 @@
       <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -511,8 +539,11 @@
       <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -525,8 +556,11 @@
       <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -539,8 +573,11 @@
       <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -553,8 +590,11 @@
       <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -567,8 +607,11 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -581,8 +624,11 @@
       <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -595,8 +641,11 @@
       <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -609,8 +658,11 @@
       <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -623,8 +675,11 @@
       <c r="D12" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -637,8 +692,11 @@
       <c r="D13" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -651,8 +709,11 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -665,8 +726,11 @@
       <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -679,8 +743,11 @@
       <c r="D16" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -693,8 +760,11 @@
       <c r="D17" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
@@ -707,8 +777,11 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
@@ -721,8 +794,11 @@
       <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
@@ -735,8 +811,11 @@
       <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
@@ -748,6 +827,9 @@
       </c>
       <c r="D21" s="5" t="s">
         <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/master_time_sheet.xlsx
+++ b/master_time_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/5_PythonFiles/ESHL_CBo_Post_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC104854B11976DA5ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7622BDB8-B70F-4755-AB19-00939371C129}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_F25DC773A252ABDACC104854B11976DA5ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{014112D1-0C84-4A64-A265-5D6306F73821}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Raghavakrishna Devineni</author>
+  </authors>
+  <commentList>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{8A79E6C1-33B4-4E6F-A3D1-19F3D8A6450F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No outdoor CO2 data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{317B253A-517F-4BE3-96BE-F016036EDA22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No outdoor CO2 data
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>experiment</t>
   </si>
@@ -127,6 +186,18 @@
   </si>
   <si>
     <t>1a,1l,1l_sub,2l,3f,3l,4a,4a_sub,4a_testo,4l,5flur,5treppe,außen,tr,weather</t>
+  </si>
+  <si>
+    <t>calibration</t>
+  </si>
+  <si>
+    <t>eshl_calibration</t>
+  </si>
+  <si>
+    <t>cbo_calibration</t>
+  </si>
+  <si>
+    <t>außen,3l_kü,3l_wz,4l,2l,1l,bd,bd_original,</t>
   </si>
 </sst>
 </file>
@@ -136,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +221,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -181,6 +271,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,11 +551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F8" sqref="F8:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,9 +564,10 @@
     <col min="2" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,8 +583,11 @@
       <c r="E1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -506,10 +601,13 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -525,8 +623,11 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -542,8 +643,11 @@
       <c r="E4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -559,8 +663,11 @@
       <c r="E5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -576,8 +683,11 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -593,8 +703,11 @@
       <c r="E7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -610,8 +723,11 @@
       <c r="E8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -627,8 +743,11 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -644,8 +763,11 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -661,8 +783,11 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -678,8 +803,11 @@
       <c r="E12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -695,9 +823,12 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="F13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="6">
@@ -712,9 +843,12 @@
       <c r="E14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="F14" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="6">
@@ -729,8 +863,11 @@
       <c r="E15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -746,8 +883,11 @@
       <c r="E16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -763,8 +903,11 @@
       <c r="E17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
@@ -780,8 +923,11 @@
       <c r="E18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
@@ -797,8 +943,11 @@
       <c r="E19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
@@ -814,8 +963,11 @@
       <c r="E20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
@@ -830,10 +982,14 @@
       </c>
       <c r="E21" t="s">
         <v>33</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/master_time_sheet.xlsx
+++ b/master_time_sheet.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/5_PythonFiles/ESHL_CBo_Post_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_F25DC773A252ABDACC104854B11976DA5ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{014112D1-0C84-4A64-A265-5D6306F73821}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="11_F25DC773A252ABDACC104854B11976DA5ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F298218-96B9-4EED-9B17-803EBBD6F258}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="inputs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
   <si>
     <t>experiment</t>
   </si>
@@ -198,16 +199,44 @@
   </si>
   <si>
     <t>außen,3l_kü,3l_wz,4l,2l,1l,bd,bd_original,</t>
+  </si>
+  <si>
+    <t>tau_nom</t>
+  </si>
+  <si>
+    <t>tau_nom_uncertainty</t>
+  </si>
+  <si>
+    <t>n_nom</t>
+  </si>
+  <si>
+    <t>n_nom_uncertainty</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>volume_uncertainty</t>
+  </si>
+  <si>
+    <t>volume_flow</t>
+  </si>
+  <si>
+    <t>volume_flow_uncertainty</t>
+  </si>
+  <si>
+    <t>temp_diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +263,45 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -249,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -257,11 +325,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -272,6 +420,75 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,4 +1209,704 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D97AABE-6E83-4911-B53A-9B9C3CD8CDAF}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="18">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="19">
+        <v>48</v>
+      </c>
+      <c r="D2" s="19">
+        <v>7</v>
+      </c>
+      <c r="E2" s="19">
+        <v>185</v>
+      </c>
+      <c r="F2" s="19">
+        <v>1</v>
+      </c>
+      <c r="G2" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="H2" s="27">
+        <v>0.04</v>
+      </c>
+      <c r="I2" s="30">
+        <v>3.83</v>
+      </c>
+      <c r="J2" s="24">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="21">
+        <v>-1.3</v>
+      </c>
+      <c r="C3" s="20">
+        <v>93</v>
+      </c>
+      <c r="D3" s="20">
+        <v>17</v>
+      </c>
+      <c r="E3" s="20">
+        <v>185</v>
+      </c>
+      <c r="F3" s="20">
+        <v>1</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="28">
+        <v>0.09</v>
+      </c>
+      <c r="I3" s="31">
+        <v>1.98</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="21">
+        <v>2.8</v>
+      </c>
+      <c r="C4" s="20">
+        <v>39</v>
+      </c>
+      <c r="D4" s="20">
+        <v>9</v>
+      </c>
+      <c r="E4" s="20">
+        <v>185</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0.21</v>
+      </c>
+      <c r="H4" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="31">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="J4" s="25">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="22">
+        <v>-5.6</v>
+      </c>
+      <c r="C5" s="23">
+        <v>80</v>
+      </c>
+      <c r="D5" s="23">
+        <v>13</v>
+      </c>
+      <c r="E5" s="23">
+        <v>185</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0.43</v>
+      </c>
+      <c r="H5" s="29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I5" s="32">
+        <v>2.31</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="18">
+        <v>-2.9</v>
+      </c>
+      <c r="C6" s="19">
+        <v>48</v>
+      </c>
+      <c r="D6" s="19">
+        <v>7</v>
+      </c>
+      <c r="E6" s="19">
+        <v>185</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0.04</v>
+      </c>
+      <c r="I6" s="30">
+        <v>3.83</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="21">
+        <v>-11</v>
+      </c>
+      <c r="C7" s="20">
+        <v>93</v>
+      </c>
+      <c r="D7" s="20">
+        <v>17</v>
+      </c>
+      <c r="E7" s="20">
+        <v>185</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1</v>
+      </c>
+      <c r="G7" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0.09</v>
+      </c>
+      <c r="I7" s="31">
+        <v>1.98</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="21">
+        <v>-8.5</v>
+      </c>
+      <c r="C8" s="20">
+        <v>39</v>
+      </c>
+      <c r="D8" s="20">
+        <v>9</v>
+      </c>
+      <c r="E8" s="20">
+        <v>185</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+      <c r="G8" s="31">
+        <v>0.21</v>
+      </c>
+      <c r="H8" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="I8" s="31">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="J8" s="25">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="22">
+        <v>-1.7</v>
+      </c>
+      <c r="C9" s="23">
+        <v>80</v>
+      </c>
+      <c r="D9" s="23">
+        <v>13</v>
+      </c>
+      <c r="E9" s="23">
+        <v>185</v>
+      </c>
+      <c r="F9" s="23">
+        <v>1</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0.43</v>
+      </c>
+      <c r="H9" s="29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I9" s="32">
+        <v>2.31</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="C10" s="19">
+        <v>90</v>
+      </c>
+      <c r="D10" s="19">
+        <v>8</v>
+      </c>
+      <c r="E10" s="19">
+        <v>134</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0.67</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="I10" s="30">
+        <v>1.49</v>
+      </c>
+      <c r="J10" s="24">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="21">
+        <v>6.9</v>
+      </c>
+      <c r="C11" s="20">
+        <v>128</v>
+      </c>
+      <c r="D11" s="20">
+        <v>13</v>
+      </c>
+      <c r="E11" s="20">
+        <v>134</v>
+      </c>
+      <c r="F11" s="20">
+        <v>1</v>
+      </c>
+      <c r="G11" s="31">
+        <v>0.96</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="31">
+        <v>1.04</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="21">
+        <v>-0.3</v>
+      </c>
+      <c r="C12" s="20">
+        <v>361</v>
+      </c>
+      <c r="D12" s="20">
+        <v>26</v>
+      </c>
+      <c r="E12" s="20">
+        <v>134</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="31">
+        <v>2.7</v>
+      </c>
+      <c r="H12" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="31">
+        <v>0.37</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>27</v>
+      </c>
+      <c r="D13" s="20">
+        <v>3</v>
+      </c>
+      <c r="E13" s="20">
+        <v>134</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="I13" s="31">
+        <v>4.92</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="21">
+        <v>8.4</v>
+      </c>
+      <c r="C14" s="20">
+        <v>68</v>
+      </c>
+      <c r="D14" s="20">
+        <v>11</v>
+      </c>
+      <c r="E14" s="20">
+        <v>134</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0.51</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0.08</v>
+      </c>
+      <c r="I14" s="31">
+        <v>1.97</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="22">
+        <v>2.4</v>
+      </c>
+      <c r="C15" s="23">
+        <v>301</v>
+      </c>
+      <c r="D15" s="23">
+        <v>25</v>
+      </c>
+      <c r="E15" s="23">
+        <v>134</v>
+      </c>
+      <c r="F15" s="23">
+        <v>1</v>
+      </c>
+      <c r="G15" s="32">
+        <v>2.25</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0.19</v>
+      </c>
+      <c r="I15" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="J15" s="26">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="18">
+        <v>-15.5</v>
+      </c>
+      <c r="C16" s="19">
+        <v>90</v>
+      </c>
+      <c r="D16" s="19">
+        <v>8</v>
+      </c>
+      <c r="E16" s="19">
+        <v>134</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="30">
+        <v>0.67</v>
+      </c>
+      <c r="H16" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="I16" s="30">
+        <v>1.49</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="21">
+        <v>-18.2</v>
+      </c>
+      <c r="C17" s="20">
+        <v>128</v>
+      </c>
+      <c r="D17" s="20">
+        <v>13</v>
+      </c>
+      <c r="E17" s="20">
+        <v>134</v>
+      </c>
+      <c r="F17" s="20">
+        <v>1</v>
+      </c>
+      <c r="G17" s="31">
+        <v>0.96</v>
+      </c>
+      <c r="H17" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="31">
+        <v>1.04</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="21">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="C18" s="20">
+        <v>361</v>
+      </c>
+      <c r="D18" s="20">
+        <v>26</v>
+      </c>
+      <c r="E18" s="20">
+        <v>134</v>
+      </c>
+      <c r="F18" s="20">
+        <v>1</v>
+      </c>
+      <c r="G18" s="31">
+        <v>2.7</v>
+      </c>
+      <c r="H18" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="31">
+        <v>0.37</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="21">
+        <v>-15.7</v>
+      </c>
+      <c r="C19" s="20">
+        <v>27</v>
+      </c>
+      <c r="D19" s="20">
+        <v>3</v>
+      </c>
+      <c r="E19" s="20">
+        <v>134</v>
+      </c>
+      <c r="F19" s="20">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="I19" s="31">
+        <v>4.92</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="21">
+        <v>-16.7</v>
+      </c>
+      <c r="C20" s="20">
+        <v>68</v>
+      </c>
+      <c r="D20" s="20">
+        <v>11</v>
+      </c>
+      <c r="E20" s="20">
+        <v>134</v>
+      </c>
+      <c r="F20" s="20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="31">
+        <v>0.51</v>
+      </c>
+      <c r="H20" s="28">
+        <v>0.08</v>
+      </c>
+      <c r="I20" s="31">
+        <v>1.97</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="22">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="C21" s="23">
+        <v>301</v>
+      </c>
+      <c r="D21" s="23">
+        <v>25</v>
+      </c>
+      <c r="E21" s="23">
+        <v>134</v>
+      </c>
+      <c r="F21" s="23">
+        <v>1</v>
+      </c>
+      <c r="G21" s="32">
+        <v>2.25</v>
+      </c>
+      <c r="H21" s="29">
+        <v>0.19</v>
+      </c>
+      <c r="I21" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="J21" s="26">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/master_time_sheet.xlsx
+++ b/master_time_sheet.xlsx
@@ -5,16 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/5_PythonFiles/ESHL_CBo_Post_Processing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raghavakrishna\OneDrive - bwedu\5_PythonFiles\ESHL_CBo_Post_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="11_F25DC773A252ABDACC104854B11976DA5ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F298218-96B9-4EED-9B17-803EBBD6F258}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA17DA-543D-4823-8112-D0C54D96C934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="inputs" sheetId="2" r:id="rId2"/>
+    <sheet name="naming_CBO_winter" sheetId="7" r:id="rId3"/>
+    <sheet name="naming_CBO_summer" sheetId="8" r:id="rId4"/>
+    <sheet name="HOBO_CBO" sheetId="5" r:id="rId5"/>
+    <sheet name="HOBO_ESHL" sheetId="3" r:id="rId6"/>
+    <sheet name="Testo_ESHL" sheetId="4" r:id="rId7"/>
+    <sheet name="wall_CBO" sheetId="6" r:id="rId8"/>
+    <sheet name="wall_ESHL" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,6 +38,78 @@
     <author>Raghavakrishna Devineni</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1BFD26B0-4DE2-4E8B-A620-753FE29DB891}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+These names should be given as input for analysis. Alternatively you could create a simple GUI to select this column.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{38F3388D-B9B2-4211-BE52-54A9CEA4DBB7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+These seonsors are excluded from evaluation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{6C7A6DA1-288E-4B47-A841-294110EEC756}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The database to look for calibration regression equations.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A14" authorId="0" shapeId="0" xr:uid="{8A79E6C1-33B4-4E6F-A3D1-19F3D8A6450F}">
       <text>
         <r>
@@ -84,8 +163,666 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Raghavakrishna Devineni</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{08BC267C-89AD-4E27-8961-61D095E636D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+All the inputs are previously calculated using python and the corresponding results with its uncertainties are listed here to reduce computing power.
+Parameters like volume flow and volume are calculated with outmost precision, It would be waste to resources to calculate them again and again. 
+So the results are directly loaded from this sheet.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Raghavakrishna Devineni</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0C3487C7-41A7-405C-8AD2-CE047DC5606F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+SZ 01 CBO winter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{60302350-C391-4D9A-BB06-41BBB8293410}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+SZ 02 CBO winter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{BBDA4DA2-8A58-4332-9529-981B47349EE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+WZ CBO winter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{42891FD6-5D50-4301-B365-B5E6937B11D1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+BD winter</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Raghavakrishna Devineni</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{EFB939B2-E56A-43CD-ADF8-89A68736BE25}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+SZ 01 CBO winter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3FAC551A-9AF8-4E83-BE1A-6C034C6AE1C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+SZ 02 CBO winter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{15057819-74AE-42E2-B17B-AB0D35B1DDDF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+WZ CBO winter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{5D8F3555-13B6-4B9C-AECB-68E293174F0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+BD winter</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Raghavakrishna Devineni</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5B66C3DB-2B66-4E60-BB1F-19AF36E58FF6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Winter measurements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9D56AB42-6C86-4F94-816A-80FDD4A0A100}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Summer measurements</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Raghavakrishna Devineni</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C6630967-39C8-4336-A570-407277983036}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ESHL Winter naming conventions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{6EE9C9DB-57BD-4F78-90B3-8F57040519E2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ESHL Summer naming conventions</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Raghavakrishna Devineni</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{96B8FA61-9DF8-4A2F-B7DD-C73743CBA304}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This sheet has the names of columns and the standardised columns. This way it is easy to identlfy the sensor and units just by seeing column name in MySQL database. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A3EFC476-FB20-42C7-AC92-3A17650FAE28}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Winter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DB7854F1-3B41-4A58-99C9-1CA5E15149D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Summer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{ACBDAF99-7216-4118-A72D-166D143FD14A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Testo 350XL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{2A071BD4-3D9A-4471-9EDC-E3B6D4E3EEE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Testo 350XL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{9FA4A34C-7224-4D6E-9391-D8567FA0F50C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Testo 480</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{52B4E0D8-804F-41D2-8D7F-467D571D1034}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Testo 400</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Raghavakrishna Devineni</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AED7A16B-D2F9-47A0-980C-F64FF70BF2E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Winter measurements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7D2BE7EE-9718-459E-A2E6-DD87C1452115}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Summer measurements</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Raghavakrishna Devineni</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1C3CF8E0-F4EA-44C6-9C28-13694DF7F990}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Summer measurements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{764CFB80-0913-48D5-88F4-CA383B61291F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Raghavakrishna Devineni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Winter measurements</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="320">
   <si>
     <t>experiment</t>
   </si>
@@ -226,17 +963,837 @@
   </si>
   <si>
     <t>temp_diff</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>1a_50</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>1b_50</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>1e</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>2a_50</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>2c_50</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>2e</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>3a_50</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>3c_50</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>3e</t>
+  </si>
+  <si>
+    <t>3f</t>
+  </si>
+  <si>
+    <t>3g</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>3L_Kü</t>
+  </si>
+  <si>
+    <t>3L_WZ</t>
+  </si>
+  <si>
+    <t>4L</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
+  <si>
+    <t>außen</t>
+  </si>
+  <si>
+    <t>old_name</t>
+  </si>
+  <si>
+    <t>new_name</t>
+  </si>
+  <si>
+    <t>Date / time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>sec Runtime</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>hPa (1)</t>
+  </si>
+  <si>
+    <t>hPa</t>
+  </si>
+  <si>
+    <t>PpmCO2 2.1 (11)</t>
+  </si>
+  <si>
+    <t>CO2_ppm</t>
+  </si>
+  <si>
+    <t>%rH 3.1 (11)</t>
+  </si>
+  <si>
+    <t>RH_%rH</t>
+  </si>
+  <si>
+    <t>°C 3.2 (11)</t>
+  </si>
+  <si>
+    <t>RH_°C</t>
+  </si>
+  <si>
+    <t>m/s 4.1 (11)</t>
+  </si>
+  <si>
+    <t>hw_m/sec</t>
+  </si>
+  <si>
+    <t>°C 4.2 (11)</t>
+  </si>
+  <si>
+    <t>hw_°C</t>
+  </si>
+  <si>
+    <t>°C 1.1 (11)</t>
+  </si>
+  <si>
+    <t>gb_°C</t>
+  </si>
+  <si>
+    <t>m/s (1)</t>
+  </si>
+  <si>
+    <t>hb_m/sec</t>
+  </si>
+  <si>
+    <t>°C (1)</t>
+  </si>
+  <si>
+    <t>hb_°C</t>
+  </si>
+  <si>
+    <t>PpmCO2 1.1 (9)</t>
+  </si>
+  <si>
+    <t>°C 2.1 (9)</t>
+  </si>
+  <si>
+    <t>%rH 4.1 (9)</t>
+  </si>
+  <si>
+    <t>°C 4.2 (9)</t>
+  </si>
+  <si>
+    <t>m/s 3.1 (9)</t>
+  </si>
+  <si>
+    <t>°C 3.2 (9)</t>
+  </si>
+  <si>
+    <t>Datum / Uhrzeit</t>
+  </si>
+  <si>
+    <t>SecRuntime</t>
+  </si>
+  <si>
+    <t>°C temp._2467500</t>
+  </si>
+  <si>
+    <t>%rH rel humidity_2467500</t>
+  </si>
+  <si>
+    <t>°C Temp._2445076</t>
+  </si>
+  <si>
+    <t>CO2_°C</t>
+  </si>
+  <si>
+    <t>%rF Rel.Feu_2445076</t>
+  </si>
+  <si>
+    <t>CO2_%rH</t>
+  </si>
+  <si>
+    <t>ppm CO2_2445076</t>
+  </si>
+  <si>
+    <t>°C Temp._2435567</t>
+  </si>
+  <si>
+    <t>m/s Str.Ge_2435567</t>
+  </si>
+  <si>
+    <t>testo400-650-950</t>
+  </si>
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>ppm CO2</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1L_Sub</t>
+  </si>
+  <si>
+    <t>3L</t>
+  </si>
+  <si>
+    <t>3T</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>4c</t>
+  </si>
+  <si>
+    <t>5Flur</t>
+  </si>
+  <si>
+    <t>5Treppe</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>4a_Sub</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>T05</t>
+  </si>
+  <si>
+    <t>T06</t>
+  </si>
+  <si>
+    <t>T07</t>
+  </si>
+  <si>
+    <t>T08</t>
+  </si>
+  <si>
+    <t>T09</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>PpmCO2 3.1 (9)</t>
+  </si>
+  <si>
+    <t>%rH (1)</t>
+  </si>
+  <si>
+    <t>m/s 1.1 (9)</t>
+  </si>
+  <si>
+    <t>°C 1.2 (9)</t>
+  </si>
+  <si>
+    <t>m/s 4.1 (9)</t>
+  </si>
+  <si>
+    <t>PpmCO2 4.1 (28)</t>
+  </si>
+  <si>
+    <t>m/s 2.1 (28)</t>
+  </si>
+  <si>
+    <t>°C 2.2 (28)</t>
+  </si>
+  <si>
+    <t>°C 3.1 (28)</t>
+  </si>
+  <si>
+    <t>m/s 1.1 (28)</t>
+  </si>
+  <si>
+    <t>°C 1.2 (28)</t>
+  </si>
+  <si>
+    <t>m/s Str.Ge_3408940</t>
+  </si>
+  <si>
+    <t>°C Temp._3408940</t>
+  </si>
+  <si>
+    <t>m/s.1</t>
+  </si>
+  <si>
+    <t>°C.1</t>
+  </si>
+  <si>
+    <t>sec Laufzeit</t>
+  </si>
+  <si>
+    <t>PpmCO2 2.1 (28)</t>
+  </si>
+  <si>
+    <t>%rF 3.1 (28)</t>
+  </si>
+  <si>
+    <t>°C 3.2 (28)</t>
+  </si>
+  <si>
+    <t>°C 4.1 (28)</t>
+  </si>
+  <si>
+    <t>°C 1.1 (9)</t>
+  </si>
+  <si>
+    <t>%rF 2.1 (9)</t>
+  </si>
+  <si>
+    <t>°C 2.2 (9)</t>
+  </si>
+  <si>
+    <t>°C -076</t>
+  </si>
+  <si>
+    <t>%rF -076</t>
+  </si>
+  <si>
+    <t>CO2_%</t>
+  </si>
+  <si>
+    <t>ppm -076</t>
+  </si>
+  <si>
+    <t>°C -567</t>
+  </si>
+  <si>
+    <t>m/s -567</t>
+  </si>
+  <si>
+    <t>m/s -940</t>
+  </si>
+  <si>
+    <t>°C -940</t>
+  </si>
+  <si>
+    <t>°C Int</t>
+  </si>
+  <si>
+    <t>hPa Int</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>Tw01</t>
+  </si>
+  <si>
+    <t>Tw02</t>
+  </si>
+  <si>
+    <t>Tw03</t>
+  </si>
+  <si>
+    <t>Tw04</t>
+  </si>
+  <si>
+    <t>Tw05</t>
+  </si>
+  <si>
+    <t>Tw06</t>
+  </si>
+  <si>
+    <t>Tw07</t>
+  </si>
+  <si>
+    <t>Tw08</t>
+  </si>
+  <si>
+    <t>Tw09</t>
+  </si>
+  <si>
+    <t>Tw10</t>
+  </si>
+  <si>
+    <t>Tw11</t>
+  </si>
+  <si>
+    <t>Tw12</t>
+  </si>
+  <si>
+    <t>Tw13</t>
+  </si>
+  <si>
+    <t>Tw14</t>
+  </si>
+  <si>
+    <t>Tw15</t>
+  </si>
+  <si>
+    <t>Tw16</t>
+  </si>
+  <si>
+    <t>Tw17</t>
+  </si>
+  <si>
+    <t>Tw18</t>
+  </si>
+  <si>
+    <t>Tw19</t>
+  </si>
+  <si>
+    <t>Tw20</t>
+  </si>
+  <si>
+    <t>Tw21</t>
+  </si>
+  <si>
+    <t>Tw22</t>
+  </si>
+  <si>
+    <t>Tw23</t>
+  </si>
+  <si>
+    <t>Tw24</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>tablename</t>
+  </si>
+  <si>
+    <t>LR_floor</t>
+  </si>
+  <si>
+    <t>t01</t>
+  </si>
+  <si>
+    <t>LR_ceiling</t>
+  </si>
+  <si>
+    <t>t02</t>
+  </si>
+  <si>
+    <t>LR_north</t>
+  </si>
+  <si>
+    <t>t03</t>
+  </si>
+  <si>
+    <t>LR_east</t>
+  </si>
+  <si>
+    <t>t04</t>
+  </si>
+  <si>
+    <t>LR_south</t>
+  </si>
+  <si>
+    <t>t05</t>
+  </si>
+  <si>
+    <t>LR_west</t>
+  </si>
+  <si>
+    <t>t06</t>
+  </si>
+  <si>
+    <t>BD1_floor</t>
+  </si>
+  <si>
+    <t>t07</t>
+  </si>
+  <si>
+    <t>BD1_ceiling</t>
+  </si>
+  <si>
+    <t>t08</t>
+  </si>
+  <si>
+    <t>BD1_north</t>
+  </si>
+  <si>
+    <t>t09</t>
+  </si>
+  <si>
+    <t>BD1_east</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>BD1_south</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>BD1_west</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>BD2_floor</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>BD2_ceiling</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>BD2_north</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>BD2_east</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>BD2_south</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>BD2_west</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>Bath_floor</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>Bath_ceiling</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>Bath_north</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>Bath_east</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>Bath_south</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>Bath_west</t>
+  </si>
+  <si>
+    <t>t24</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>LR_roof_north</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>LR_roof_east</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>LR_roof_south</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t>LR_roof_west</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>BD1_roof_east</t>
+  </si>
+  <si>
+    <t>t29</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>BD2_roof_east</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>PpmCO2 (1)</t>
+  </si>
+  <si>
+    <t>%rH 1.1 (11)</t>
+  </si>
+  <si>
+    <t>°C 1.2 (11)</t>
+  </si>
+  <si>
+    <t>m/s 2.1 (11)</t>
+  </si>
+  <si>
+    <t>°C 2.2 (11)</t>
+  </si>
+  <si>
+    <t>°C 3.1 (11)</t>
+  </si>
+  <si>
+    <t>%rH 3.1 (9)</t>
+  </si>
+  <si>
+    <t>°C temp._2445076</t>
+  </si>
+  <si>
+    <t>%rH rel humidity_2445076</t>
+  </si>
+  <si>
+    <t>°C temp._2435567</t>
+  </si>
+  <si>
+    <t>m/s vel. flow_2435567</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>eshl_summer_wall</t>
+  </si>
+  <si>
+    <t>eshl_winter_wall</t>
+  </si>
+  <si>
+    <t>cbo_summer_wall</t>
+  </si>
+  <si>
+    <t>cbo_winter_wall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +1859,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +1921,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor theme="2" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="2" tint="0.59996337778862885"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -405,11 +2039,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -462,22 +2147,22 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,8 +2174,128 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -769,22 +2574,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="2" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" customWidth="1"/>
     <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -803,8 +2608,11 @@
       <c r="F1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,8 +2631,11 @@
       <c r="F2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -843,8 +2654,11 @@
       <c r="F3" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="104" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -863,8 +2677,11 @@
       <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="104" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,8 +2700,11 @@
       <c r="F5" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="104" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -903,8 +2723,11 @@
       <c r="F6" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="104" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,8 +2746,11 @@
       <c r="F7" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="104" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -943,8 +2769,11 @@
       <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -963,8 +2792,11 @@
       <c r="F9" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="104" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -983,8 +2815,11 @@
       <c r="F10" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="104" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1003,8 +2838,11 @@
       <c r="F11" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="104" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1023,8 +2861,11 @@
       <c r="F12" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="104" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +2884,11 @@
       <c r="F13" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="104" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -1063,8 +2907,11 @@
       <c r="F14" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1083,8 +2930,11 @@
       <c r="F15" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="104" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1103,8 +2953,11 @@
       <c r="F16" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="104" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1123,8 +2976,11 @@
       <c r="F17" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="104" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
@@ -1143,8 +2999,11 @@
       <c r="F18" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
@@ -1163,8 +3022,11 @@
       <c r="F19" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="104" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
@@ -1183,8 +3045,11 @@
       <c r="F20" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="104" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
@@ -1202,6 +3067,9 @@
       </c>
       <c r="F21" s="5" t="s">
         <v>36</v>
+      </c>
+      <c r="G21" s="104" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -1212,28 +3080,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D97AABE-6E83-4911-B53A-9B9C3CD8CDAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D97AABE-6E83-4911-B53A-9B9C3CD8CDAF}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +3133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
@@ -1297,7 +3165,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
@@ -1329,7 +3197,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>17</v>
       </c>
@@ -1361,7 +3229,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
@@ -1393,7 +3261,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>19</v>
       </c>
@@ -1425,7 +3293,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
@@ -1457,7 +3325,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
@@ -1489,7 +3357,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
@@ -1521,7 +3389,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -1553,7 +3421,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>4</v>
       </c>
@@ -1585,7 +3453,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>5</v>
       </c>
@@ -1617,7 +3485,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>6</v>
       </c>
@@ -1649,7 +3517,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
@@ -1681,7 +3549,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17" t="s">
         <v>8</v>
       </c>
@@ -1713,7 +3581,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -1745,7 +3613,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>10</v>
       </c>
@@ -1777,7 +3645,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>11</v>
       </c>
@@ -1809,7 +3677,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>12</v>
       </c>
@@ -1841,7 +3709,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>13</v>
       </c>
@@ -1873,7 +3741,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17" t="s">
         <v>14</v>
       </c>
@@ -1908,5 +3776,3219 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCD805-D24C-420B-B191-5F1A068CA300}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="71" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D1B90-7B34-46A3-BA02-572A27A70684}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="82" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G13" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G14" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G15" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G16" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G17" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G18" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G19" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G20" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G21" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G22" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G23" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G24" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E520D147-895C-4069-9EBF-1B8E0F1416D3}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="54">
+        <v>10950495</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="86">
+        <v>20274900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="57">
+        <v>20269839</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="84">
+        <v>20269839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="52">
+        <v>20274901</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="84">
+        <v>20274901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="52">
+        <v>10773515</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="84">
+        <v>10773515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="52">
+        <v>20269806</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="84">
+        <v>20269806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="57">
+        <v>10773511</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="84">
+        <v>10950495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="52">
+        <v>10950495</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="84">
+        <v>10950492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="52">
+        <v>10950492</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="84">
+        <v>20269834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="52">
+        <v>20269834</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="84">
+        <v>10773514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="52">
+        <v>10773514</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="84">
+        <v>20269811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="52">
+        <v>20269811</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="84">
+        <v>20269842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="52">
+        <v>20269842</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="84">
+        <v>20269828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="52">
+        <v>20269828</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="84">
+        <v>10950491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="52">
+        <v>10950491</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="84">
+        <v>10950493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="52">
+        <v>10950493</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="84">
+        <v>20269831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="52">
+        <v>20269831</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="84">
+        <v>20269838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="52">
+        <v>20269838</v>
+      </c>
+      <c r="D18" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="84">
+        <v>20269833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="52">
+        <v>20269833</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="84">
+        <v>20269827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="52">
+        <v>20269829</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="84">
+        <v>10773512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="52">
+        <v>20269827</v>
+      </c>
+      <c r="D21" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="84">
+        <v>20269840</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="52">
+        <v>10773512</v>
+      </c>
+      <c r="D22" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="84">
+        <v>20269829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="52">
+        <v>20269840</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="84">
+        <v>20269841</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="52">
+        <v>20269830</v>
+      </c>
+      <c r="D24" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="84">
+        <v>20269832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="52">
+        <v>20269841</v>
+      </c>
+      <c r="D25" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="84">
+        <v>20269835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="52">
+        <v>20269832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="57">
+        <v>10773513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="52">
+        <v>20274900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="52">
+        <v>20269835</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="57">
+        <v>20269836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="57">
+        <v>10950494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="57">
+        <v>20269837</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391ADF4C-16E5-43E2-A4D5-5957F3C1AE03}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="35">
+        <v>20269827</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="96">
+        <v>20269827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="35">
+        <v>20269829</v>
+      </c>
+      <c r="D3" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="96">
+        <v>20269829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="35">
+        <v>10773513</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="96">
+        <v>10773513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="35">
+        <v>20269838</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="96">
+        <v>20269838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="35">
+        <v>20269832</v>
+      </c>
+      <c r="D6" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="96">
+        <v>20269832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="35">
+        <v>20269833</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="96">
+        <v>20269833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="35">
+        <v>20269834</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="96">
+        <v>20269834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="35">
+        <v>10773515</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="96">
+        <v>10773515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="35">
+        <v>20269839</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="96">
+        <v>20269839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="35">
+        <v>10773512</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="96">
+        <v>10773512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="35">
+        <v>20269837</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="96">
+        <v>20269837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="35">
+        <v>20269830</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="96">
+        <v>20269830</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="35">
+        <v>20269840</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="96">
+        <v>20269840</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="35">
+        <v>20269836</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="96">
+        <v>20269836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="35">
+        <v>10950491</v>
+      </c>
+      <c r="D16" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="96">
+        <v>10950491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="35">
+        <v>20269835</v>
+      </c>
+      <c r="D17" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="96">
+        <v>20269835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="35">
+        <v>10773511</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="96">
+        <v>10773511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="35">
+        <v>20269841</v>
+      </c>
+      <c r="D19" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="96">
+        <v>20269841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="35">
+        <v>20269806</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="96">
+        <v>20269806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="35">
+        <v>10950493</v>
+      </c>
+      <c r="D21" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="96">
+        <v>10950493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="35">
+        <v>20274900</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="96">
+        <v>20274900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="35">
+        <v>10950494</v>
+      </c>
+      <c r="D23" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="96">
+        <v>10950494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="35">
+        <v>20269831</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="96">
+        <v>20269831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="35">
+        <v>20269811</v>
+      </c>
+      <c r="D25" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="96">
+        <v>20269811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="35">
+        <v>10950492</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="96">
+        <v>10950492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="35">
+        <v>10950495</v>
+      </c>
+      <c r="D27" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="96">
+        <v>10950495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="35">
+        <v>10773514</v>
+      </c>
+      <c r="D28" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="96">
+        <v>10773514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="35">
+        <v>20269842</v>
+      </c>
+      <c r="D29" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="96">
+        <v>20269842</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="35">
+        <v>20274901</v>
+      </c>
+      <c r="D30" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="96">
+        <v>20274901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="35">
+        <v>20269828</v>
+      </c>
+      <c r="D31" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="96">
+        <v>20269828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD71862-2438-4C4E-97EF-9F29BA9606EE}">
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="101" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="47"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="101" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="47"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="101" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="101" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="101" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="101" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="101" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>310</v>
+      </c>
+      <c r="E20" s="101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="101" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="101" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="101" t="s">
+        <v>311</v>
+      </c>
+      <c r="E28" s="101" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>312</v>
+      </c>
+      <c r="E29" s="101" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="101" t="s">
+        <v>313</v>
+      </c>
+      <c r="E31" s="101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" s="101" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="101" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="101" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D41EF86-7E33-41CA-85F4-F39A165596EC}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="58">
+        <v>9759956</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="89">
+        <v>9759956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="58">
+        <v>10811406</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="89">
+        <v>10811406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="58">
+        <v>1222778</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="89">
+        <v>1222778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="58">
+        <v>9759954</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="89">
+        <v>9759954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="58">
+        <v>1222769</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="89">
+        <v>1222769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="58">
+        <v>10811400</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="89">
+        <v>10811400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="58">
+        <v>10811408</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="89">
+        <v>10811408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="58">
+        <v>1222777</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="89">
+        <v>1222777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="58">
+        <v>9759955</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="89">
+        <v>9759955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="58">
+        <v>1222771</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="89">
+        <v>1222771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="58">
+        <v>1222772</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="89">
+        <v>1222772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="58">
+        <v>1222767</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="89">
+        <v>1222767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="58">
+        <v>10811409</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="89">
+        <v>10811409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="58">
+        <v>10811411</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="89">
+        <v>10811411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="58">
+        <v>10811401</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="89">
+        <v>10811401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="58">
+        <v>1222768</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="89">
+        <v>1222768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="58">
+        <v>1222770</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="89">
+        <v>1222770</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="58">
+        <v>1222776</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="89">
+        <v>1222776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="58">
+        <v>1222765</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="89">
+        <v>1222765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="58">
+        <v>1222775</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="89">
+        <v>1222775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="58">
+        <v>10811404</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="89">
+        <v>10811404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="58">
+        <v>9759958</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="89">
+        <v>9759958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="58">
+        <v>10811399</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="89">
+        <v>10811399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="58">
+        <v>10811398</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="89">
+        <v>10811398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444EFBFB-4F76-4655-8BD0-F85B6B5CF36F}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="28.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="105" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="104" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="104" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="104" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="104" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="104" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="104" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="104" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="104" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="104" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="104" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" s="104" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="104" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="92" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="104" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="104" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="104" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="104" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="104" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="104" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="104" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="104" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="92" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="92" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="92" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="92" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="92" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="92" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="92" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="92" t="s">
+        <v>289</v>
+      </c>
+      <c r="B27" s="92" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="92" t="s">
+        <v>292</v>
+      </c>
+      <c r="B28" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="C28" s="92" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="92" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="B30" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" s="92" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="92" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/master_time_sheet.xlsx
+++ b/master_time_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raghavakrishna\OneDrive - bwedu\5_PythonFiles\ESHL_CBo_Post_Processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/5_PythonFiles/ESHL_CBo_Post_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA17DA-543D-4823-8112-D0C54D96C934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{9BCA17DA-543D-4823-8112-D0C54D96C934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DA88933-8600-448D-BE63-FB139866A5B5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -822,7 +822,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="322">
   <si>
     <t>experiment</t>
   </si>
@@ -1782,6 +1782,12 @@
   </si>
   <si>
     <t>cbo_winter_wall</t>
+  </si>
+  <si>
+    <t>Volume flow</t>
+  </si>
+  <si>
+    <t>Volume flow std</t>
   </si>
 </sst>
 </file>
@@ -2094,17 +2100,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2293,6 +2291,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -2574,22 +2589,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2611,465 +2629,591 @@
       <c r="G1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="96" t="s">
+        <v>320</v>
+      </c>
+      <c r="I1" s="96" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="99">
         <v>44019.625</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="99">
         <v>44019.75</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="100" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="101">
+        <v>89.788380638377291</v>
+      </c>
+      <c r="I2">
+        <v>7.9267290381016347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="103">
         <v>44021.748611111114</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="103">
         <v>44021.854166666664</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="104" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="104" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="H3" s="105">
+        <v>128.443787127907</v>
+      </c>
+      <c r="I3">
+        <v>12.71495918799441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="103">
         <v>44020.429166666669</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="103">
         <v>44020.465277777781</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="104" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="104" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="105">
+        <v>361.22641182562569</v>
+      </c>
+      <c r="I4">
+        <v>26.09190415901746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="103">
         <v>44020.638888888891</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="103">
         <v>44020.902777777781</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="104" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="104" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="105">
+        <v>27.206006314210381</v>
+      </c>
+      <c r="I5">
+        <v>2.578901375878039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="103">
         <v>44021.547222222223</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="103">
         <v>44021.694444444445</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="104" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="104" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="105">
+        <v>68.020410710102254</v>
+      </c>
+      <c r="I6">
+        <v>10.58682814510475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="107">
         <v>44020.545138888891</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="107">
         <v>44020.59375</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="108" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="H7" s="109">
+        <v>300.80303540782103</v>
+      </c>
+      <c r="I7">
+        <v>25.123658285866149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="99">
         <v>43887.65902777778</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="99">
         <v>43887.75</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="100" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="H8" s="101">
+        <v>89.788380638377291</v>
+      </c>
+      <c r="I8">
+        <v>7.9267290381016347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="103">
         <v>43887.893055555556</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="103">
         <v>43887.970138888886</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="104" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="104" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="H9" s="105">
+        <v>128.443787127907</v>
+      </c>
+      <c r="I9">
+        <v>12.71495918799441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="103">
         <v>43887.798611111109</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="103">
         <v>43887.829861111109</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="104" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="104" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="H10" s="105">
+        <v>361.22641182562569</v>
+      </c>
+      <c r="I10">
+        <v>26.09190415901746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="103">
         <v>43887.143055555556</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="103">
         <v>43887.354166666664</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="104" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="104" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="H11" s="105">
+        <v>27.206006314210381</v>
+      </c>
+      <c r="I11">
+        <v>2.578901375878039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="103">
         <v>43888.063888888886</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="103">
         <v>43888.17291666667</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="104" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="104" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="H12" s="105">
+        <v>68.020410710102254</v>
+      </c>
+      <c r="I12">
+        <v>10.58682814510475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="107">
         <v>43887.463194444441</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="107">
         <v>43887.520833333336</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="104" t="s">
+      <c r="G13" s="108" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="H13" s="109">
+        <v>300.80303540782103</v>
+      </c>
+      <c r="I13">
+        <v>25.123658285866149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="99">
         <v>43692.614965277775</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="99">
         <v>43692.777083333334</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="100" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="H14" s="101">
+        <v>48.210907294354882</v>
+      </c>
+      <c r="I14">
+        <v>7.2358364157376371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="103">
         <v>43690.547222222223</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="103">
         <v>43690.708333333336</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="104" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="104" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="H15" s="105">
+        <v>93.338978269456305</v>
+      </c>
+      <c r="I15">
+        <v>16.86053836704944</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="103">
         <v>43693.470833333333</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="103">
         <v>43693.696527777778</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="104" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="104" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="H16" s="105">
+        <v>39.398154343196182</v>
+      </c>
+      <c r="I16">
+        <v>8.5544387100584309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="107">
         <v>43697.480555555558</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="107">
         <v>43697.704861111109</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="104" t="s">
+      <c r="G17" s="108" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="H17" s="109">
+        <v>80.151670603926306</v>
+      </c>
+      <c r="I17">
+        <v>13.326912199363541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="99">
         <v>43860.508796296293</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="99">
         <v>43860.666608796295</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="100" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="H18" s="101">
+        <v>48.210907294354882</v>
+      </c>
+      <c r="I18">
+        <v>7.2358364157376371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="103">
         <v>43858.757233796299</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="103">
         <v>43858.898495370369</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="104" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="104" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="H19" s="105">
+        <v>93.338978269456305</v>
+      </c>
+      <c r="I19">
+        <v>16.86053836704944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="103">
         <v>43859.617013888892</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="103">
         <v>43859.784201388888</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="104" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="104" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="H20" s="105">
+        <v>39.398154343196182</v>
+      </c>
+      <c r="I20">
+        <v>8.5544387100584309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="107">
         <v>43861.46979166667</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="107">
         <v>43861.597222222219</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="104" t="s">
+      <c r="G21" s="108" t="s">
         <v>319</v>
+      </c>
+      <c r="H21" s="109">
+        <v>80.151670603926306</v>
+      </c>
+      <c r="I21">
+        <v>13.326912199363541</v>
       </c>
     </row>
   </sheetData>
@@ -3083,693 +3227,693 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D97AABE-6E83-4911-B53A-9B9C3CD8CDAF}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="10">
         <v>-1</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="11">
         <v>48</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="11">
         <v>7</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="11">
         <v>185</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="11">
         <v>1</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="22">
         <v>0.26</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="19">
         <v>0.04</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="22">
         <v>3.83</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="16">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="13">
         <v>-1.3</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="12">
         <v>93</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="12">
         <v>17</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="12">
         <v>185</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="23">
         <v>0.5</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="20">
         <v>0.09</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="23">
         <v>1.98</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="17">
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="13">
         <v>2.8</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="12">
         <v>39</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="12">
         <v>9</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="12">
         <v>185</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="23">
         <v>0.21</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="20">
         <v>0.05</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="23">
         <v>4.6900000000000004</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="17">
         <v>1.02</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="14">
         <v>-5.6</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="15">
         <v>80</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="15">
         <v>13</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="15">
         <v>185</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="24">
         <v>0.43</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="24">
         <v>2.31</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="18">
         <v>0.38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="10">
         <v>-2.9</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="11">
         <v>48</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="11">
         <v>7</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="11">
         <v>185</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="22">
         <v>0.26</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="19">
         <v>0.04</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="22">
         <v>3.83</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="16">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="13">
         <v>-11</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="12">
         <v>93</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="12">
         <v>17</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="12">
         <v>185</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="23">
         <v>0.5</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="20">
         <v>0.09</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="23">
         <v>1.98</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="17">
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="13">
         <v>-8.5</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="12">
         <v>39</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="12">
         <v>9</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="12">
         <v>185</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="23">
         <v>0.21</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="20">
         <v>0.05</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="23">
         <v>4.6900000000000004</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="17">
         <v>1.02</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="14">
         <v>-1.7</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="15">
         <v>80</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="15">
         <v>13</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="15">
         <v>185</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="24">
         <v>0.43</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="24">
         <v>2.31</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="18">
         <v>0.38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="10">
         <v>1.4</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="11">
         <v>90</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="11">
         <v>8</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="11">
         <v>134</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="22">
         <v>0.67</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="19">
         <v>0.06</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="22">
         <v>1.49</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="16">
         <v>0.13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="13">
         <v>6.9</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="12">
         <v>128</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="12">
         <v>13</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="12">
         <v>134</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="12">
         <v>1</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="23">
         <v>0.96</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="20">
         <v>0.1</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="23">
         <v>1.04</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="17">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="13">
         <v>-0.3</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="12">
         <v>361</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="12">
         <v>26</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="12">
         <v>134</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="12">
         <v>1</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="23">
         <v>2.7</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="20">
         <v>0.2</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="23">
         <v>0.37</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="17">
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="13">
         <v>0.2</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="12">
         <v>27</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="12">
         <v>3</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="12">
         <v>134</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="12">
         <v>1</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="23">
         <v>0.2</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="20">
         <v>0.02</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="23">
         <v>4.92</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="17">
         <v>0.47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="13">
         <v>8.4</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="12">
         <v>68</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="12">
         <v>11</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="12">
         <v>134</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="12">
         <v>1</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="23">
         <v>0.51</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="20">
         <v>0.08</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="23">
         <v>1.97</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="17">
         <v>0.31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="14">
         <v>2.4</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="15">
         <v>301</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="15">
         <v>25</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="15">
         <v>134</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="15">
         <v>1</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="24">
         <v>2.25</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="21">
         <v>0.19</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="24">
         <v>0.45</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="18">
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="10">
         <v>-15.5</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="11">
         <v>90</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="11">
         <v>8</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="11">
         <v>134</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="11">
         <v>1</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="22">
         <v>0.67</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="19">
         <v>0.06</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="22">
         <v>1.49</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="16">
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="13">
         <v>-18.2</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="12">
         <v>128</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="12">
         <v>13</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="12">
         <v>134</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="12">
         <v>1</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="23">
         <v>0.96</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="20">
         <v>0.1</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="23">
         <v>1.04</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="17">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="13">
         <v>-16.899999999999999</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="12">
         <v>361</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="12">
         <v>26</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="12">
         <v>134</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="12">
         <v>1</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="23">
         <v>2.7</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="20">
         <v>0.2</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="23">
         <v>0.37</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="17">
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="13">
         <v>-15.7</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="12">
         <v>27</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="12">
         <v>3</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="12">
         <v>134</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="12">
         <v>1</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="23">
         <v>0.2</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="20">
         <v>0.02</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="23">
         <v>4.92</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="17">
         <v>0.47</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="13">
         <v>-16.7</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="12">
         <v>68</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="12">
         <v>11</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="12">
         <v>134</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="12">
         <v>1</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="23">
         <v>0.51</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="20">
         <v>0.08</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="23">
         <v>1.97</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="17">
         <v>0.31</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="14">
         <v>-17.100000000000001</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="15">
         <v>301</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="15">
         <v>25</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="15">
         <v>134</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="15">
         <v>1</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="24">
         <v>2.25</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="21">
         <v>0.19</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="24">
         <v>0.45</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="18">
         <v>0.04</v>
       </c>
     </row>
@@ -3788,309 +3932,309 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="8" width="20.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="64" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="63" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="63" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="71" t="s">
+      <c r="K5" s="63" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="63" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="66" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="63" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="74" t="s">
+      <c r="K7" s="66" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="74" t="s">
+      <c r="K8" s="66" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="63" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="66" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="63" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="60" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="63" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="60" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="63" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="60" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4106,398 +4250,398 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="K1" s="73" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="72" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="80" t="s">
+      <c r="J3" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="72" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="75" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="80" t="s">
+      <c r="J4" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="72" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="80" t="s">
+      <c r="J5" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="80" t="s">
+      <c r="K5" s="72" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="75" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="80" t="s">
+      <c r="J6" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="74" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="75" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="J7" s="80" t="s">
+      <c r="J7" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="82" t="s">
+      <c r="K7" s="74" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="75" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="79" t="s">
+      <c r="G8" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="80" t="s">
+      <c r="J8" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="74" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="75" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="80" t="s">
+      <c r="J9" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="74" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="75" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="69" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="75" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="69" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="75" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="H12" s="77" t="s">
+      <c r="H12" s="69" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G13" s="79" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="H13" s="77" t="s">
+      <c r="H13" s="69" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G14" s="77" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="77" t="s">
+      <c r="H14" s="69" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G15" s="77" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="77" t="s">
+      <c r="H15" s="69" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G16" s="77" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="69" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G17" s="77" t="s">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="77" t="s">
+      <c r="H17" s="69" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G18" s="77" t="s">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="77" t="s">
+      <c r="H18" s="69" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G19" s="77" t="s">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="77" t="s">
+      <c r="H19" s="69" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G20" s="77" t="s">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="77" t="s">
+      <c r="H20" s="69" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G21" s="77" t="s">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="77" t="s">
+      <c r="H21" s="69" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G22" s="77" t="s">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="H22" s="77" t="s">
+      <c r="H22" s="69" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G23" s="77" t="s">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="H23" s="77" t="s">
+      <c r="H23" s="69" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G24" s="77" t="s">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="H24" s="77" t="s">
+      <c r="H24" s="69" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4515,411 +4659,411 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="75" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="46">
         <v>10950495</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="86">
+      <c r="E2" s="78">
         <v>20274900</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="49">
         <v>20269839</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="76">
         <v>20269839</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="44">
         <v>20274901</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="76">
         <v>20274901</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="44">
         <v>10773515</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="76">
         <v>10773515</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="44">
         <v>20269806</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="76">
         <v>20269806</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="54" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="49">
         <v>10773511</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="76">
         <v>10950495</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="53" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="44">
         <v>10950495</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="76">
         <v>10950492</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="44">
         <v>10950492</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="76">
         <v>20269834</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="54" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="44">
         <v>20269834</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="76">
         <v>10773514</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="53" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="44">
         <v>10773514</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="76">
         <v>20269811</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="53" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="44">
         <v>20269811</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="76">
         <v>20269842</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="54" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="44">
         <v>20269842</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="76">
         <v>20269828</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="53" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="44">
         <v>20269828</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="76">
         <v>10950491</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="54" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="44">
         <v>10950491</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="76">
         <v>10950493</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="54" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="44">
         <v>10950493</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="76">
         <v>20269831</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="53" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="44">
         <v>20269831</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="76">
         <v>20269838</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="53" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="44">
         <v>20269838</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="76">
         <v>20269833</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="54" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="44">
         <v>20269833</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="84">
+      <c r="E19" s="76">
         <v>20269827</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="53" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="44">
         <v>20269829</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="84">
+      <c r="E20" s="76">
         <v>10773512</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="53" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B21" s="44">
         <v>20269827</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="76">
         <v>20269840</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="53" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="44">
         <v>10773512</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="E22" s="84">
+      <c r="E22" s="76">
         <v>20269829</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="53" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="44">
         <v>20269840</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="76">
         <v>20269841</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="53" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="44">
         <v>20269830</v>
       </c>
-      <c r="D24" s="87" t="s">
+      <c r="D24" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="76">
         <v>20269832</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="54" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="44">
         <v>20269841</v>
       </c>
-      <c r="D25" s="88" t="s">
+      <c r="D25" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="76">
         <v>20269835</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="55" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="44">
         <v>20269832</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="55" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="49">
         <v>10773513</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="55" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="44">
         <v>20274900</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="56" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B29" s="44">
         <v>20269835</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="54" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="49">
         <v>20269836</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="54" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="49">
         <v>10950494</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="54" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="57">
+      <c r="B32" s="49">
         <v>20269837</v>
       </c>
     </row>
@@ -4937,439 +5081,439 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="86" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="27">
         <v>20269827</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="96">
+      <c r="E2" s="88">
         <v>20269827</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="27">
         <v>20269829</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="96">
+      <c r="E3" s="88">
         <v>20269829</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="27">
         <v>10773513</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E4" s="88">
         <v>10773513</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="27">
         <v>20269838</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="88">
         <v>20269838</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="27">
         <v>20269832</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="96">
+      <c r="E6" s="88">
         <v>20269832</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="27">
         <v>20269833</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="88">
         <v>20269833</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="27">
         <v>20269834</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="88">
         <v>20269834</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="27">
         <v>10773515</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="96">
+      <c r="E9" s="88">
         <v>10773515</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="27">
         <v>20269839</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="88">
         <v>20269839</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="27">
         <v>10773512</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E11" s="88">
         <v>10773512</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="27">
         <v>20269837</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="88">
         <v>20269837</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="27">
         <v>20269830</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E13" s="88">
         <v>20269830</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="27">
         <v>20269840</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="88">
         <v>20269840</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="27">
         <v>20269836</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="88">
         <v>20269836</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="27">
         <v>10950491</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E16" s="88">
         <v>10950491</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="27">
         <v>20269835</v>
       </c>
-      <c r="D17" s="98" t="s">
+      <c r="D17" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="88">
         <v>20269835</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="34" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="27">
         <v>10773511</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E18" s="88">
         <v>10773511</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="27">
         <v>20269841</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="96">
+      <c r="E19" s="88">
         <v>20269841</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="27">
         <v>20269806</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D20" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="96">
+      <c r="E20" s="88">
         <v>20269806</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="27">
         <v>10950493</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="D21" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="96">
+      <c r="E21" s="88">
         <v>10950493</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="27">
         <v>20274900</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E22" s="88">
         <v>20274900</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="36" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="27">
         <v>10950494</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="96">
+      <c r="E23" s="88">
         <v>10950494</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="34" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="27">
         <v>20269831</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="96">
+      <c r="E24" s="88">
         <v>20269831</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="36" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="27">
         <v>20269811</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="96">
+      <c r="E25" s="88">
         <v>20269811</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="27">
         <v>10950492</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="96">
+      <c r="E26" s="88">
         <v>10950492</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="27">
         <v>10950495</v>
       </c>
-      <c r="D27" s="99" t="s">
+      <c r="D27" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="96">
+      <c r="E27" s="88">
         <v>10950495</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="34" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="27">
         <v>10773514</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="96">
+      <c r="E28" s="88">
         <v>10773514</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="36" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="27">
         <v>20269842</v>
       </c>
-      <c r="D29" s="97" t="s">
+      <c r="D29" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="96">
+      <c r="E29" s="88">
         <v>20269842</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="27">
         <v>20274901</v>
       </c>
-      <c r="D30" s="100" t="s">
+      <c r="D30" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="96">
+      <c r="E30" s="88">
         <v>20274901</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="38" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="27">
         <v>20269828</v>
       </c>
-      <c r="D31" s="99" t="s">
+      <c r="D31" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="96">
+      <c r="E31" s="88">
         <v>20269828</v>
       </c>
     </row>
@@ -5387,751 +5531,751 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="102" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="101" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="101" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="101" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="49" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="101" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="93" t="s">
         <v>304</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="47"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="49" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="39"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="101" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="93" t="s">
         <v>305</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="47"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="49" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="39"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="101" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="93" t="s">
         <v>306</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="47"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="F7" s="33"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="39"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="101" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="93" t="s">
         <v>307</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="49" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="39"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="101" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="93" t="s">
         <v>308</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="49" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="101" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="93" t="s">
         <v>309</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="49" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="101" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="49" t="s">
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="101" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="103" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="49" t="s">
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="101" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="49" t="s">
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="101" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="101" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="93" t="s">
         <v>304</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="49" t="s">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="101" t="s">
+      <c r="E17" s="93" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="93" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="49" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="101" t="s">
+      <c r="E19" s="93" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="49" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="93" t="s">
         <v>310</v>
       </c>
-      <c r="E20" s="101" t="s">
+      <c r="E20" s="93" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="101" t="s">
+      <c r="E21" s="93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="49" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="101" t="s">
+      <c r="E22" s="93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="101" t="s">
+      <c r="E23" s="93" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="43" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="103" t="s">
+      <c r="D24" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="93" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="101" t="s">
+      <c r="E25" s="93" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="101" t="s">
+      <c r="E26" s="93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="50" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="101" t="s">
+      <c r="E27" s="93" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="93" t="s">
         <v>311</v>
       </c>
-      <c r="E28" s="101" t="s">
+      <c r="E28" s="93" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="93" t="s">
         <v>312</v>
       </c>
-      <c r="E29" s="101" t="s">
+      <c r="E29" s="93" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="101" t="s">
+      <c r="E30" s="93" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="41" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="93" t="s">
         <v>313</v>
       </c>
-      <c r="E31" s="101" t="s">
+      <c r="E31" s="93" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="41" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="93" t="s">
         <v>314</v>
       </c>
-      <c r="E32" s="101" t="s">
+      <c r="E32" s="93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="43" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="103" t="s">
+      <c r="D33" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="101" t="s">
+      <c r="E33" s="93" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="41" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="101" t="s">
+      <c r="D34" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="101" t="s">
+      <c r="E34" s="93" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="41" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="101" t="s">
+      <c r="D35" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="101" t="s">
+      <c r="E35" s="93" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="41" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="101" t="s">
+      <c r="D36" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="101" t="s">
+      <c r="E36" s="93" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="41" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="101" t="s">
+      <c r="E37" s="93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="41" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="101" t="s">
+      <c r="D38" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="101" t="s">
+      <c r="E38" s="93" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6149,355 +6293,355 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="83" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="50">
         <v>9759956</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="89">
+      <c r="E2" s="81">
         <v>9759956</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="50">
         <v>10811406</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="89">
+      <c r="E3" s="81">
         <v>10811406</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="50">
         <v>1222778</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="89">
+      <c r="E4" s="81">
         <v>1222778</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="50">
         <v>9759954</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="89">
+      <c r="E5" s="81">
         <v>9759954</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="50">
         <v>1222769</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="E6" s="89">
+      <c r="E6" s="81">
         <v>1222769</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="50">
         <v>10811400</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="89">
+      <c r="E7" s="81">
         <v>10811400</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="58" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="50">
         <v>10811408</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="89">
+      <c r="E8" s="81">
         <v>10811408</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="58" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="50">
         <v>1222777</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="81">
         <v>1222777</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="58" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="50">
         <v>9759955</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="81">
         <v>9759955</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="58" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="50">
         <v>1222771</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="81">
         <v>1222771</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="58" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="50">
         <v>1222772</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="81">
         <v>1222772</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="58" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="50">
         <v>1222767</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="81">
         <v>1222767</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="50">
         <v>10811409</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E14" s="81">
         <v>10811409</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="58" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="50">
         <v>10811411</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="E15" s="89">
+      <c r="E15" s="81">
         <v>10811411</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="50">
         <v>10811401</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="81">
         <v>10811401</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="58" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="50">
         <v>1222768</v>
       </c>
-      <c r="D17" s="89" t="s">
+      <c r="D17" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="89">
+      <c r="E17" s="81">
         <v>1222768</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="58" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="50">
         <v>1222770</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="D18" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="E18" s="89">
+      <c r="E18" s="81">
         <v>1222770</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="58" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="50">
         <v>1222776</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="E19" s="89">
+      <c r="E19" s="81">
         <v>1222776</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="50">
         <v>1222765</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="E20" s="89">
+      <c r="E20" s="81">
         <v>1222765</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="50">
         <v>1222775</v>
       </c>
-      <c r="D21" s="89" t="s">
+      <c r="D21" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="81">
         <v>1222775</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="58" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="58">
+      <c r="B22" s="50">
         <v>10811404</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="89">
+      <c r="E22" s="81">
         <v>10811404</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="58" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="58">
+      <c r="B23" s="50">
         <v>9759958</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="E23" s="89">
+      <c r="E23" s="81">
         <v>9759958</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="58" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="50">
         <v>10811399</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="E24" s="89">
+      <c r="E24" s="81">
         <v>10811399</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="58" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="58">
+      <c r="B25" s="50">
         <v>10811398</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="81" t="s">
         <v>234</v>
       </c>
-      <c r="E25" s="89">
+      <c r="E25" s="81">
         <v>10811398</v>
       </c>
     </row>
@@ -6515,475 +6659,475 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="97" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="96" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="92" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="84" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="84" t="s">
         <v>241</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="96" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="92" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="84" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="96" t="s">
         <v>248</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="96" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="92" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="84" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="96" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="92" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="104" t="s">
+      <c r="E6" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="96" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="92" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="96" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="92" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="84" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="G8" s="104" t="s">
+      <c r="G8" s="96" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="92" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="84" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="96" t="s">
         <v>258</v>
       </c>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="96" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="92" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="84" t="s">
         <v>255</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="96" t="s">
         <v>262</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="96" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="92" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="96" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="92" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="104" t="s">
+      <c r="F12" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="G12" s="104" t="s">
+      <c r="G12" s="96" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="92" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="84" t="s">
         <v>261</v>
       </c>
-      <c r="E13" s="104" t="s">
+      <c r="E13" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="104" t="s">
+      <c r="F13" s="96" t="s">
         <v>272</v>
       </c>
-      <c r="G13" s="104" t="s">
+      <c r="G13" s="96" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="92" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="F14" s="96" t="s">
         <v>270</v>
       </c>
-      <c r="G14" s="104" t="s">
+      <c r="G14" s="96" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="92" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="84" t="s">
         <v>264</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="84" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="92" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="84" t="s">
         <v>266</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="84" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="92" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="84" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="92" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="84" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="92" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="84" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="92" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="84" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="84" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="92" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="84" t="s">
         <v>276</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="84" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="92" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="84" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="92" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="84" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="92" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="84" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="92" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="84" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="92" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="84" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="92" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="84" t="s">
         <v>289</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="84" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="92" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="84" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="92" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="84" t="s">
         <v>295</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="84" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="92" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="84" t="s">
         <v>299</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="84" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="92" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="84" t="s">
         <v>301</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="84" t="s">
         <v>302</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="84" t="s">
         <v>303</v>
       </c>
     </row>
